--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H2">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N2">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q2">
-        <v>0.2235342385507778</v>
+        <v>0.13987947184</v>
       </c>
       <c r="R2">
-        <v>2.011808146957</v>
+        <v>1.25891524656</v>
       </c>
       <c r="S2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="T2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H3">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q3">
-        <v>0.6583093314964443</v>
+        <v>0.3200751306266666</v>
       </c>
       <c r="R3">
-        <v>5.924783983467998</v>
+        <v>2.880676175639999</v>
       </c>
       <c r="S3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="T3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H4">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N4">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q4">
-        <v>0.9640869337726666</v>
+        <v>0.3752964509366667</v>
       </c>
       <c r="R4">
-        <v>8.676782403954</v>
+        <v>3.37766805843</v>
       </c>
       <c r="S4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="T4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H5">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N5">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q5">
-        <v>1.039878298274667</v>
+        <v>0.5476337856133333</v>
       </c>
       <c r="R5">
-        <v>9.358904684472</v>
+        <v>4.928704070519999</v>
       </c>
       <c r="S5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="T5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H6">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N6">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q6">
-        <v>0.5562222277111111</v>
+        <v>0.3600045050633333</v>
       </c>
       <c r="R6">
-        <v>5.006000049399999</v>
+        <v>3.240040545569999</v>
       </c>
       <c r="S6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="T6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H7">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N7">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q7">
-        <v>1.206907019213</v>
+        <v>0.2386909131166667</v>
       </c>
       <c r="R7">
-        <v>10.862163172917</v>
+        <v>2.14821821805</v>
       </c>
       <c r="S7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="T7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
     </row>
   </sheetData>
